--- a/Python/auc_p_value_matrix_knn.xlsx
+++ b/Python/auc_p_value_matrix_knn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2365CE6E-7F6C-4A9B-B3AA-27A9F515E367}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2CCD09-E837-4068-8C1B-C76927F25A06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:I20"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -439,61 +439,61 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.89660500721288827</v>
+        <v>0.9789043955827611</v>
       </c>
       <c r="D2">
-        <v>9.3393797522616409E-2</v>
+        <v>6.4767974235135584E-2</v>
       </c>
       <c r="E2">
-        <v>0.75890368292807853</v>
+        <v>0.7902360428246703</v>
       </c>
       <c r="F2">
-        <v>0.99791429023458911</v>
+        <v>0.53406863016544237</v>
       </c>
       <c r="G2">
-        <v>1.178969392069398E-3</v>
+        <v>1.221641378040979E-3</v>
       </c>
       <c r="H2">
-        <v>1.9688243499467888E-2</v>
+        <v>2.174844471418011E-2</v>
       </c>
       <c r="I2">
-        <v>0.25936399527517889</v>
+        <v>0.30025735769984302</v>
       </c>
       <c r="J2">
-        <v>0.24701795517519509</v>
+        <v>0.34196867672790182</v>
       </c>
       <c r="K2">
-        <v>0.90205733546612077</v>
+        <v>0.93050889703980078</v>
       </c>
       <c r="L2">
-        <v>0.36435969948574648</v>
+        <v>0.38403219612852058</v>
       </c>
       <c r="M2">
-        <v>0.69108631661522146</v>
+        <v>0.64589352852956128</v>
       </c>
       <c r="N2">
-        <v>2.838086264403538E-2</v>
+        <v>1.5743253567313611E-2</v>
       </c>
       <c r="O2">
-        <v>4.0328962379045763E-2</v>
+        <v>5.4237425116652152E-2</v>
       </c>
       <c r="P2">
-        <v>0.15673802163210079</v>
+        <v>0.1569493097669134</v>
       </c>
       <c r="Q2">
-        <v>5.1419793174229268E-2</v>
+        <v>9.0062428718067078E-2</v>
       </c>
       <c r="R2">
-        <v>0.1182010440605652</v>
+        <v>0.26825608640272097</v>
       </c>
       <c r="S2">
-        <v>0.63255100046337531</v>
+        <v>0.91002183462187269</v>
       </c>
       <c r="T2">
-        <v>2.8328333382408231E-2</v>
+        <v>6.0548267099335721E-3</v>
       </c>
       <c r="U2">
-        <v>0.73576531689198665</v>
+        <v>0.49694623990398712</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -501,64 +501,64 @@
         <v>2E-3</v>
       </c>
       <c r="B3">
-        <v>0.89660500721288827</v>
+        <v>0.9789043955827611</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.14718950153824789</v>
+        <v>8.2392579987373371E-2</v>
       </c>
       <c r="E3">
-        <v>0.87556024123442699</v>
+        <v>0.78568428810828239</v>
       </c>
       <c r="F3">
-        <v>0.89804355427286098</v>
+        <v>0.57954625713309227</v>
       </c>
       <c r="G3">
-        <v>3.718045241578941E-3</v>
+        <v>2.5591977485548002E-3</v>
       </c>
       <c r="H3">
-        <v>3.9148792124889538E-2</v>
+        <v>3.1244484619686461E-2</v>
       </c>
       <c r="I3">
-        <v>0.35669001174796428</v>
+        <v>0.3260268158713937</v>
       </c>
       <c r="J3">
-        <v>0.33578660356557283</v>
+        <v>0.36357078102080942</v>
       </c>
       <c r="K3">
-        <v>0.99039090630795201</v>
+        <v>0.95500069705125101</v>
       </c>
       <c r="L3">
-        <v>0.47298940570320519</v>
+        <v>0.40800639692447488</v>
       </c>
       <c r="M3">
-        <v>0.80624217678243315</v>
+        <v>0.65169359306299712</v>
       </c>
       <c r="N3">
-        <v>5.5001823017620653E-2</v>
+        <v>2.483454466022179E-2</v>
       </c>
       <c r="O3">
-        <v>7.7068318022040033E-2</v>
+        <v>7.3577194362750134E-2</v>
       </c>
       <c r="P3">
-        <v>0.2345697413026599</v>
+        <v>0.18343697962193509</v>
       </c>
       <c r="Q3">
-        <v>9.1862825792578512E-2</v>
+        <v>0.11206750392758839</v>
       </c>
       <c r="R3">
-        <v>0.188327097796545</v>
+        <v>0.2953455983469957</v>
       </c>
       <c r="S3">
-        <v>0.753856239131663</v>
+        <v>0.89608783168178041</v>
       </c>
       <c r="T3">
-        <v>2.8775683742666949E-2</v>
+        <v>1.1862168192821491E-2</v>
       </c>
       <c r="U3">
-        <v>0.65098074758759961</v>
+        <v>0.54911081550713625</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -566,64 +566,64 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>9.3393797522616409E-2</v>
+        <v>6.4767974235135584E-2</v>
       </c>
       <c r="C4">
-        <v>0.14718950153824789</v>
+        <v>8.2392579987373371E-2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.16249181123054701</v>
+        <v>0.1109961639447455</v>
       </c>
       <c r="F4">
-        <v>0.1055146351452647</v>
+        <v>1.932917582651349E-2</v>
       </c>
       <c r="G4">
-        <v>0.1348673671136143</v>
+        <v>0.1783725900654124</v>
       </c>
       <c r="H4">
-        <v>0.52030116088801615</v>
+        <v>0.64939508885344965</v>
       </c>
       <c r="I4">
-        <v>0.53407809088713742</v>
+        <v>0.39667871949298023</v>
       </c>
       <c r="J4">
-        <v>0.61595455089154549</v>
+        <v>0.40200399687009081</v>
       </c>
       <c r="K4">
-        <v>0.1266506169718265</v>
+        <v>7.0289882788552166E-2</v>
       </c>
       <c r="L4">
-        <v>0.41194891166861702</v>
+        <v>0.29440122255794021</v>
       </c>
       <c r="M4">
-        <v>0.20497667051764351</v>
+        <v>0.17314146561216009</v>
       </c>
       <c r="N4">
-        <v>0.6559710921009505</v>
+        <v>0.65830230891658215</v>
       </c>
       <c r="O4">
-        <v>0.83080268467200125</v>
+        <v>0.93856937709224775</v>
       </c>
       <c r="P4">
-        <v>0.72438519450677008</v>
+        <v>0.61796311191435449</v>
       </c>
       <c r="Q4">
-        <v>0.8594741202520686</v>
+        <v>0.82992346312156173</v>
       </c>
       <c r="R4">
-        <v>0.79155084569233747</v>
+        <v>0.42522595592094209</v>
       </c>
       <c r="S4">
-        <v>0.20588047773485391</v>
+        <v>8.8461219343701616E-2</v>
       </c>
       <c r="T4">
-        <v>1.096818187583341E-4</v>
+        <v>9.470592307837501E-6</v>
       </c>
       <c r="U4">
-        <v>3.3608929192267198E-2</v>
+        <v>1.1682020885670181E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -631,64 +631,64 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>0.75890368292807853</v>
+        <v>0.7902360428246703</v>
       </c>
       <c r="C5">
-        <v>0.87556024123442699</v>
+        <v>0.78568428810828239</v>
       </c>
       <c r="D5">
-        <v>0.16249181123054701</v>
+        <v>0.1109961639447455</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.76578432293844922</v>
+        <v>0.38312683479498288</v>
       </c>
       <c r="G5">
-        <v>2.8940347880893808E-3</v>
+        <v>2.8399578001779119E-3</v>
       </c>
       <c r="H5">
-        <v>3.9422219757095998E-2</v>
+        <v>4.0805757111012711E-2</v>
       </c>
       <c r="I5">
-        <v>0.40864633908736631</v>
+        <v>0.44013676096191312</v>
       </c>
       <c r="J5">
-        <v>0.38337876654851583</v>
+        <v>0.48422405377622307</v>
       </c>
       <c r="K5">
-        <v>0.8596327944218114</v>
+        <v>0.73767979857930044</v>
       </c>
       <c r="L5">
-        <v>0.54478627426179593</v>
+        <v>0.54838653285630423</v>
       </c>
       <c r="M5">
-        <v>0.92116279680568847</v>
+        <v>0.84105240635310419</v>
       </c>
       <c r="N5">
-        <v>5.6287779395239927E-2</v>
+        <v>3.1666884112844587E-2</v>
       </c>
       <c r="O5">
-        <v>7.9900416782531875E-2</v>
+        <v>9.8754602346757592E-2</v>
       </c>
       <c r="P5">
-        <v>0.26431554337002722</v>
+        <v>0.25020875982937402</v>
       </c>
       <c r="Q5">
-        <v>9.7535263945460873E-2</v>
+        <v>0.1521048311107141</v>
       </c>
       <c r="R5">
-        <v>0.20920297393307191</v>
+        <v>0.40054488885294931</v>
       </c>
       <c r="S5">
-        <v>0.86751848538572318</v>
+        <v>0.88267804924079318</v>
       </c>
       <c r="T5">
-        <v>1.1243382443629459E-2</v>
+        <v>2.6554670056892259E-3</v>
       </c>
       <c r="U5">
-        <v>0.50205325395137856</v>
+        <v>0.34225107539704658</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -696,64 +696,64 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>0.99791429023458911</v>
+        <v>0.53406863016544237</v>
       </c>
       <c r="C6">
-        <v>0.89804355427286098</v>
+        <v>0.57954625713309227</v>
       </c>
       <c r="D6">
-        <v>0.1055146351452647</v>
+        <v>1.932917582651349E-2</v>
       </c>
       <c r="E6">
-        <v>0.76578432293844922</v>
+        <v>0.38312683479498288</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.835006228168327E-3</v>
+        <v>2.7642647753199119E-4</v>
       </c>
       <c r="H6">
-        <v>2.459778500920623E-2</v>
+        <v>5.8564681134943772E-3</v>
       </c>
       <c r="I6">
-        <v>0.27760103046430801</v>
+        <v>0.1112963353649374</v>
       </c>
       <c r="J6">
-        <v>0.26333638954867278</v>
+        <v>0.13631008928266469</v>
       </c>
       <c r="K6">
-        <v>0.90351706482560901</v>
+        <v>0.61626050096914664</v>
       </c>
       <c r="L6">
-        <v>0.38184603442732301</v>
+        <v>0.147694458362195</v>
       </c>
       <c r="M6">
-        <v>0.69985459615099366</v>
+        <v>0.29793317809801623</v>
       </c>
       <c r="N6">
-        <v>3.5068969673452001E-2</v>
+        <v>3.8953186457559028E-3</v>
       </c>
       <c r="O6">
-        <v>4.9559421645160882E-2</v>
+        <v>1.4743431152883509E-2</v>
       </c>
       <c r="P6">
-        <v>0.17339345435824011</v>
+        <v>5.1034527994220133E-2</v>
       </c>
       <c r="Q6">
-        <v>6.1296442973784088E-2</v>
+        <v>2.7126480679291541E-2</v>
       </c>
       <c r="R6">
-        <v>0.1341812300943111</v>
+        <v>9.6248717906364509E-2</v>
       </c>
       <c r="S6">
-        <v>0.64416854967054138</v>
+        <v>0.47320051837682259</v>
       </c>
       <c r="T6">
-        <v>3.5323409211715152E-2</v>
+        <v>4.7634102738010192E-2</v>
       </c>
       <c r="U6">
-        <v>0.74858828654913101</v>
+        <v>0.99385476258901506</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -761,64 +761,64 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="B7">
-        <v>1.178969392069398E-3</v>
+        <v>1.221641378040979E-3</v>
       </c>
       <c r="C7">
-        <v>3.718045241578941E-3</v>
+        <v>2.5591977485548002E-3</v>
       </c>
       <c r="D7">
-        <v>0.1348673671136143</v>
+        <v>0.1783725900654124</v>
       </c>
       <c r="E7">
-        <v>2.8940347880893808E-3</v>
+        <v>2.8399578001779119E-3</v>
       </c>
       <c r="F7">
-        <v>1.835006228168327E-3</v>
+        <v>2.7642647753199119E-4</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.40312883735688387</v>
+        <v>0.38065902942373392</v>
       </c>
       <c r="I7">
-        <v>2.6539852957525381E-2</v>
+        <v>2.515118998538507E-2</v>
       </c>
       <c r="J7">
-        <v>4.5625989459308763E-2</v>
+        <v>3.0926797886781869E-2</v>
       </c>
       <c r="K7">
-        <v>2.2303884343498359E-3</v>
+        <v>1.933253152061339E-3</v>
       </c>
       <c r="L7">
-        <v>1.628230442347961E-2</v>
+        <v>1.3454158209940019E-2</v>
       </c>
       <c r="M7">
-        <v>5.0737325000099623E-3</v>
+        <v>6.5571894306608348E-3</v>
       </c>
       <c r="N7">
-        <v>0.27200518424144698</v>
+        <v>0.3247647209569513</v>
       </c>
       <c r="O7">
-        <v>0.15193258628455231</v>
+        <v>0.12400570801216999</v>
       </c>
       <c r="P7">
-        <v>5.040593040320672E-2</v>
+        <v>5.6761175911664741E-2</v>
       </c>
       <c r="Q7">
-        <v>0.16029974934026781</v>
+        <v>0.10706650261633389</v>
       </c>
       <c r="R7">
-        <v>5.4275404037637642E-2</v>
+        <v>2.755893253919901E-2</v>
       </c>
       <c r="S7">
-        <v>3.9280218684882261E-3</v>
+        <v>2.1858684836326332E-3</v>
       </c>
       <c r="T7">
-        <v>3.1015565863976222E-8</v>
+        <v>8.7359987158848795E-9</v>
       </c>
       <c r="U7">
-        <v>1.257910455714396E-4</v>
+        <v>8.7866413290696481E-5</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -826,64 +826,64 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="B8">
-        <v>1.9688243499467888E-2</v>
+        <v>2.174844471418011E-2</v>
       </c>
       <c r="C8">
-        <v>3.9148792124889538E-2</v>
+        <v>3.1244484619686461E-2</v>
       </c>
       <c r="D8">
-        <v>0.52030116088801615</v>
+        <v>0.64939508885344965</v>
       </c>
       <c r="E8">
-        <v>3.9422219757095998E-2</v>
+        <v>4.0805757111012711E-2</v>
       </c>
       <c r="F8">
-        <v>2.459778500920623E-2</v>
+        <v>5.8564681134943772E-3</v>
       </c>
       <c r="G8">
-        <v>0.40312883735688387</v>
+        <v>0.38065902942373392</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.19438184608673259</v>
+        <v>0.1910078001459071</v>
       </c>
       <c r="J8">
-        <v>0.25406250273216457</v>
+        <v>0.20194077676855329</v>
       </c>
       <c r="K8">
-        <v>3.0023229273221801E-2</v>
+        <v>2.577276772371569E-2</v>
       </c>
       <c r="L8">
-        <v>0.13649354820075041</v>
+        <v>0.12952757372158979</v>
       </c>
       <c r="M8">
-        <v>5.5634427126801257E-2</v>
+        <v>7.0909119920641722E-2</v>
       </c>
       <c r="N8">
-        <v>0.82496090286181123</v>
+        <v>0.96528017096787444</v>
       </c>
       <c r="O8">
-        <v>0.62389711064037012</v>
+        <v>0.57029175728630488</v>
       </c>
       <c r="P8">
-        <v>0.30107699002185578</v>
+        <v>0.33343578711199762</v>
       </c>
       <c r="Q8">
-        <v>0.61617773128391096</v>
+        <v>0.49437280276784418</v>
       </c>
       <c r="R8">
-        <v>0.33291287133793868</v>
+        <v>0.20677844541957191</v>
       </c>
       <c r="S8">
-        <v>5.201016564626789E-2</v>
+        <v>3.1948177110101811E-2</v>
       </c>
       <c r="T8">
-        <v>5.654343907348496E-6</v>
+        <v>1.3572245697690519E-6</v>
       </c>
       <c r="U8">
-        <v>4.6882905067319172E-3</v>
+        <v>3.017897344311642E-3</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -891,64 +891,64 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B9">
-        <v>0.25936399527517889</v>
+        <v>0.30025735769984302</v>
       </c>
       <c r="C9">
-        <v>0.35669001174796428</v>
+        <v>0.3260268158713937</v>
       </c>
       <c r="D9">
-        <v>0.53407809088713742</v>
+        <v>0.39667871949298023</v>
       </c>
       <c r="E9">
-        <v>0.40864633908736631</v>
+        <v>0.44013676096191312</v>
       </c>
       <c r="F9">
-        <v>0.27760103046430801</v>
+        <v>0.1112963353649374</v>
       </c>
       <c r="G9">
-        <v>2.6539852957525381E-2</v>
+        <v>2.515118998538507E-2</v>
       </c>
       <c r="H9">
-        <v>0.19438184608673259</v>
+        <v>0.1910078001459071</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.92691478301615293</v>
+        <v>0.97376356040291712</v>
       </c>
       <c r="K9">
-        <v>0.32717730847904841</v>
+        <v>0.29314345048712209</v>
       </c>
       <c r="L9">
-        <v>0.82904292671100932</v>
+        <v>0.84984485596761106</v>
       </c>
       <c r="M9">
-        <v>0.48126241723235369</v>
+        <v>0.58077821266588747</v>
       </c>
       <c r="N9">
-        <v>0.26434421912354561</v>
+        <v>0.1744626633067182</v>
       </c>
       <c r="O9">
-        <v>0.36199411959693217</v>
+        <v>0.40027359610285529</v>
       </c>
       <c r="P9">
-        <v>0.77245466450969236</v>
+        <v>0.71146658050057954</v>
       </c>
       <c r="Q9">
-        <v>0.3979726942628512</v>
+        <v>0.51071071711459626</v>
       </c>
       <c r="R9">
-        <v>0.68576990004772587</v>
+        <v>0.95164358928317172</v>
       </c>
       <c r="S9">
-        <v>0.49938771251466169</v>
+        <v>0.36673726532749701</v>
       </c>
       <c r="T9">
-        <v>6.2897984405266315E-4</v>
+        <v>1.8532620117007179E-4</v>
       </c>
       <c r="U9">
-        <v>0.11805937257472759</v>
+        <v>8.4168555206451029E-2</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -956,64 +956,64 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="B10">
-        <v>0.24701795517519509</v>
+        <v>0.34196867672790182</v>
       </c>
       <c r="C10">
-        <v>0.33578660356557283</v>
+        <v>0.36357078102080942</v>
       </c>
       <c r="D10">
-        <v>0.61595455089154549</v>
+        <v>0.40200399687009081</v>
       </c>
       <c r="E10">
-        <v>0.38337876654851583</v>
+        <v>0.48422405377622307</v>
       </c>
       <c r="F10">
-        <v>0.26333638954867278</v>
+        <v>0.13631008928266469</v>
       </c>
       <c r="G10">
-        <v>4.5625989459308763E-2</v>
+        <v>3.0926797886781869E-2</v>
       </c>
       <c r="H10">
-        <v>0.25406250273216457</v>
+        <v>0.20194077676855329</v>
       </c>
       <c r="I10">
-        <v>0.92691478301615293</v>
+        <v>0.97376356040291712</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.30891964373674741</v>
+        <v>0.33022076467226519</v>
       </c>
       <c r="L10">
-        <v>0.76819990834854879</v>
+        <v>0.8842258951757066</v>
       </c>
       <c r="M10">
-        <v>0.44970948588637383</v>
+        <v>0.62195732568290751</v>
       </c>
       <c r="N10">
-        <v>0.33617408714896158</v>
+        <v>0.1878606279957177</v>
       </c>
       <c r="O10">
-        <v>0.44799843846220139</v>
+        <v>0.40788957834719269</v>
       </c>
       <c r="P10">
-        <v>0.85724367598208295</v>
+        <v>0.70127712232360506</v>
       </c>
       <c r="Q10">
-        <v>0.48165779364381101</v>
+        <v>0.51158052449424352</v>
       </c>
       <c r="R10">
-        <v>0.77626663123423068</v>
+        <v>0.92776510354836994</v>
       </c>
       <c r="S10">
-        <v>0.46585185726540579</v>
+        <v>0.40880580568994551</v>
       </c>
       <c r="T10">
-        <v>8.9162566897282099E-4</v>
+        <v>4.2110597652886511E-4</v>
       </c>
       <c r="U10">
-        <v>0.1177002350025671</v>
+        <v>0.10868858540134831</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1021,64 +1021,64 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.90205733546612077</v>
+        <v>0.93050889703980078</v>
       </c>
       <c r="C11">
-        <v>0.99039090630795201</v>
+        <v>0.95500069705125101</v>
       </c>
       <c r="D11">
-        <v>0.1266506169718265</v>
+        <v>7.0289882788552166E-2</v>
       </c>
       <c r="E11">
-        <v>0.8596327944218114</v>
+        <v>0.73767979857930044</v>
       </c>
       <c r="F11">
-        <v>0.90351706482560901</v>
+        <v>0.61626050096914664</v>
       </c>
       <c r="G11">
-        <v>2.2303884343498359E-3</v>
+        <v>1.933253152061339E-3</v>
       </c>
       <c r="H11">
-        <v>3.0023229273221801E-2</v>
+        <v>2.577276772371569E-2</v>
       </c>
       <c r="I11">
-        <v>0.32717730847904841</v>
+        <v>0.29314345048712209</v>
       </c>
       <c r="J11">
-        <v>0.30891964373674741</v>
+        <v>0.33022076467226519</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.44435627902717389</v>
+        <v>0.36991289548743128</v>
       </c>
       <c r="M11">
-        <v>0.78804203486424373</v>
+        <v>0.60691067891424599</v>
       </c>
       <c r="N11">
-        <v>4.2825663868545367E-2</v>
+        <v>2.0005747970124658E-2</v>
       </c>
       <c r="O11">
-        <v>6.06261397065899E-2</v>
+        <v>6.1593024903129033E-2</v>
       </c>
       <c r="P11">
-        <v>0.20727644332603981</v>
+        <v>0.16058564109222101</v>
       </c>
       <c r="Q11">
-        <v>7.457578369370628E-2</v>
+        <v>9.6195898688754569E-2</v>
       </c>
       <c r="R11">
-        <v>0.16188463700062269</v>
+        <v>0.26406798500350231</v>
       </c>
       <c r="S11">
-        <v>0.7323444859942646</v>
+        <v>0.84836218713493039</v>
       </c>
       <c r="T11">
-        <v>2.2744557770257079E-2</v>
+        <v>1.3178985340907921E-2</v>
       </c>
       <c r="U11">
-        <v>0.64405262604608482</v>
+        <v>0.58693226200321491</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1086,64 +1086,64 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="B12">
-        <v>0.36435969948574648</v>
+        <v>0.38403219612852058</v>
       </c>
       <c r="C12">
-        <v>0.47298940570320519</v>
+        <v>0.40800639692447488</v>
       </c>
       <c r="D12">
-        <v>0.41194891166861702</v>
+        <v>0.29440122255794021</v>
       </c>
       <c r="E12">
-        <v>0.54478627426179593</v>
+        <v>0.54838653285630423</v>
       </c>
       <c r="F12">
-        <v>0.38184603442732301</v>
+        <v>0.147694458362195</v>
       </c>
       <c r="G12">
-        <v>1.628230442347961E-2</v>
+        <v>1.3454158209940019E-2</v>
       </c>
       <c r="H12">
-        <v>0.13649354820075041</v>
+        <v>0.12952757372158979</v>
       </c>
       <c r="I12">
-        <v>0.82904292671100932</v>
+        <v>0.84984485596761106</v>
       </c>
       <c r="J12">
-        <v>0.76819990834854879</v>
+        <v>0.8842258951757066</v>
       </c>
       <c r="K12">
-        <v>0.44435627902717389</v>
+        <v>0.36991289548743128</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.62366195491278931</v>
+        <v>0.70411435812307233</v>
       </c>
       <c r="N12">
-        <v>0.18809948588092429</v>
+        <v>0.1128519410970201</v>
       </c>
       <c r="O12">
-        <v>0.2606270260192653</v>
+        <v>0.28836565614630078</v>
       </c>
       <c r="P12">
-        <v>0.61460766115067467</v>
+        <v>0.56872546462078888</v>
       </c>
       <c r="Q12">
-        <v>0.29283068251569627</v>
+        <v>0.38817547939897928</v>
       </c>
       <c r="R12">
-        <v>0.53228116574316275</v>
+        <v>0.79992319306159554</v>
       </c>
       <c r="S12">
-        <v>0.65188507646699145</v>
+        <v>0.46099224060846922</v>
       </c>
       <c r="T12">
-        <v>1.5380081512300151E-3</v>
+        <v>2.7459052806018749E-4</v>
       </c>
       <c r="U12">
-        <v>0.18704042112158789</v>
+        <v>0.11498386415177859</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1151,64 +1151,64 @@
         <v>1.2E-2</v>
       </c>
       <c r="B13">
-        <v>0.69108631661522146</v>
+        <v>0.64589352852956128</v>
       </c>
       <c r="C13">
-        <v>0.80624217678243315</v>
+        <v>0.65169359306299712</v>
       </c>
       <c r="D13">
-        <v>0.20497667051764351</v>
+        <v>0.17314146561216009</v>
       </c>
       <c r="E13">
-        <v>0.92116279680568847</v>
+        <v>0.84105240635310419</v>
       </c>
       <c r="F13">
-        <v>0.69985459615099366</v>
+        <v>0.29793317809801623</v>
       </c>
       <c r="G13">
-        <v>5.0737325000099623E-3</v>
+        <v>6.5571894306608348E-3</v>
       </c>
       <c r="H13">
-        <v>5.5634427126801257E-2</v>
+        <v>7.0909119920641722E-2</v>
       </c>
       <c r="I13">
-        <v>0.48126241723235369</v>
+        <v>0.58077821266588747</v>
       </c>
       <c r="J13">
-        <v>0.44970948588637383</v>
+        <v>0.62195732568290751</v>
       </c>
       <c r="K13">
-        <v>0.78804203486424373</v>
+        <v>0.60691067891424599</v>
       </c>
       <c r="L13">
-        <v>0.62366195491278931</v>
+        <v>0.70411435812307233</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>7.8369019386866912E-2</v>
+        <v>5.9213915929324283E-2</v>
       </c>
       <c r="O13">
-        <v>0.1102740827383494</v>
+        <v>0.162793477820315</v>
       </c>
       <c r="P13">
-        <v>0.32442834696137329</v>
+        <v>0.35855725730964189</v>
       </c>
       <c r="Q13">
-        <v>0.13050375861450009</v>
+        <v>0.23209186338859861</v>
       </c>
       <c r="R13">
-        <v>0.26443022659742038</v>
+        <v>0.53735462794259314</v>
       </c>
       <c r="S13">
-        <v>0.95097416649842725</v>
+        <v>0.73352968867225554</v>
       </c>
       <c r="T13">
-        <v>1.0128218609915991E-2</v>
+        <v>1.7767337166948831E-3</v>
       </c>
       <c r="U13">
-        <v>0.4487602749697015</v>
+        <v>0.25949168268281347</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1216,64 +1216,64 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="B14">
-        <v>2.838086264403538E-2</v>
+        <v>1.5743253567313611E-2</v>
       </c>
       <c r="C14">
-        <v>5.5001823017620653E-2</v>
+        <v>2.483454466022179E-2</v>
       </c>
       <c r="D14">
-        <v>0.6559710921009505</v>
+        <v>0.65830230891658215</v>
       </c>
       <c r="E14">
-        <v>5.6287779395239927E-2</v>
+        <v>3.1666884112844587E-2</v>
       </c>
       <c r="F14">
-        <v>3.5068969673452001E-2</v>
+        <v>3.8953186457559028E-3</v>
       </c>
       <c r="G14">
-        <v>0.27200518424144698</v>
+        <v>0.3247647209569513</v>
       </c>
       <c r="H14">
-        <v>0.82496090286181123</v>
+        <v>0.96528017096787444</v>
       </c>
       <c r="I14">
-        <v>0.26434421912354561</v>
+        <v>0.1744626633067182</v>
       </c>
       <c r="J14">
-        <v>0.33617408714896158</v>
+        <v>0.1878606279957177</v>
       </c>
       <c r="K14">
-        <v>4.2825663868545367E-2</v>
+        <v>2.0005747970124658E-2</v>
       </c>
       <c r="L14">
-        <v>0.18809948588092429</v>
+        <v>0.1128519410970201</v>
       </c>
       <c r="M14">
-        <v>7.8369019386866912E-2</v>
+        <v>5.9213915929324283E-2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.78868699344367188</v>
+        <v>0.57113791060611852</v>
       </c>
       <c r="P14">
-        <v>0.40036457290993999</v>
+        <v>0.32015597335879442</v>
       </c>
       <c r="Q14">
-        <v>0.77367271592968279</v>
+        <v>0.49098242963280481</v>
       </c>
       <c r="R14">
-        <v>0.44324563834641278</v>
+        <v>0.18980446478675519</v>
       </c>
       <c r="S14">
-        <v>7.4149553520369602E-2</v>
+        <v>2.449100374181928E-2</v>
       </c>
       <c r="T14">
-        <v>7.5332058947177441E-6</v>
+        <v>3.211762680567271E-7</v>
       </c>
       <c r="U14">
-        <v>6.8850517387988742E-3</v>
+        <v>1.702399757650383E-3</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1281,64 +1281,64 @@
         <v>1.4E-2</v>
       </c>
       <c r="B15">
-        <v>4.0328962379045763E-2</v>
+        <v>5.4237425116652152E-2</v>
       </c>
       <c r="C15">
-        <v>7.7068318022040033E-2</v>
+        <v>7.3577194362750134E-2</v>
       </c>
       <c r="D15">
-        <v>0.83080268467200125</v>
+        <v>0.93856937709224775</v>
       </c>
       <c r="E15">
-        <v>7.9900416782531875E-2</v>
+        <v>9.8754602346757592E-2</v>
       </c>
       <c r="F15">
-        <v>4.9559421645160882E-2</v>
+        <v>1.4743431152883509E-2</v>
       </c>
       <c r="G15">
-        <v>0.15193258628455231</v>
+        <v>0.12400570801216999</v>
       </c>
       <c r="H15">
-        <v>0.62389711064037012</v>
+        <v>0.57029175728630488</v>
       </c>
       <c r="I15">
-        <v>0.36199411959693217</v>
+        <v>0.40027359610285529</v>
       </c>
       <c r="J15">
-        <v>0.44799843846220139</v>
+        <v>0.40788957834719269</v>
       </c>
       <c r="K15">
-        <v>6.06261397065899E-2</v>
+        <v>6.1593024903129033E-2</v>
       </c>
       <c r="L15">
-        <v>0.2606270260192653</v>
+        <v>0.28836565614630078</v>
       </c>
       <c r="M15">
-        <v>0.1102740827383494</v>
+        <v>0.162793477820315</v>
       </c>
       <c r="N15">
-        <v>0.78868699344367188</v>
+        <v>0.57113791060611852</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.53634609092160956</v>
+        <v>0.64386174152096387</v>
       </c>
       <c r="Q15">
-        <v>0.97442814617470652</v>
+        <v>0.87804611281513356</v>
       </c>
       <c r="R15">
-        <v>0.59459643665488127</v>
+        <v>0.43112187143525221</v>
       </c>
       <c r="S15">
-        <v>0.105350247374715</v>
+        <v>7.7512167192489101E-2</v>
       </c>
       <c r="T15">
-        <v>8.0862016452021382E-6</v>
+        <v>2.541465780178165E-6</v>
       </c>
       <c r="U15">
-        <v>9.6148397578198347E-3</v>
+        <v>7.7947105982049854E-3</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1346,64 +1346,64 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B16">
-        <v>0.15673802163210079</v>
+        <v>0.1569493097669134</v>
       </c>
       <c r="C16">
-        <v>0.2345697413026599</v>
+        <v>0.18343697962193509</v>
       </c>
       <c r="D16">
-        <v>0.72438519450677008</v>
+        <v>0.61796311191435449</v>
       </c>
       <c r="E16">
-        <v>0.26431554337002722</v>
+        <v>0.25020875982937402</v>
       </c>
       <c r="F16">
-        <v>0.17339345435824011</v>
+        <v>5.1034527994220133E-2</v>
       </c>
       <c r="G16">
-        <v>5.040593040320672E-2</v>
+        <v>5.6761175911664741E-2</v>
       </c>
       <c r="H16">
-        <v>0.30107699002185578</v>
+        <v>0.33343578711199762</v>
       </c>
       <c r="I16">
-        <v>0.77245466450969236</v>
+        <v>0.71146658050057954</v>
       </c>
       <c r="J16">
-        <v>0.85724367598208295</v>
+        <v>0.70127712232360506</v>
       </c>
       <c r="K16">
-        <v>0.20727644332603981</v>
+        <v>0.16058564109222101</v>
       </c>
       <c r="L16">
-        <v>0.61460766115067467</v>
+        <v>0.56872546462078888</v>
       </c>
       <c r="M16">
-        <v>0.32442834696137329</v>
+        <v>0.35855725730964189</v>
       </c>
       <c r="N16">
-        <v>0.40036457290993999</v>
+        <v>0.32015597335879442</v>
       </c>
       <c r="O16">
-        <v>0.53634609092160956</v>
+        <v>0.64386174152096387</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.57374417286847423</v>
+        <v>0.76906905946122606</v>
       </c>
       <c r="R16">
-        <v>0.91526826907824443</v>
+        <v>0.75460478955165866</v>
       </c>
       <c r="S16">
-        <v>0.33136053018914541</v>
+        <v>0.20299411685812799</v>
       </c>
       <c r="T16">
-        <v>1.8895350131251009E-4</v>
+        <v>3.697488931009965E-5</v>
       </c>
       <c r="U16">
-        <v>6.0274504011367511E-2</v>
+        <v>3.4199897593911302E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1411,64 +1411,64 @@
         <v>1.6E-2</v>
       </c>
       <c r="B17">
-        <v>5.1419793174229268E-2</v>
+        <v>9.0062428718067078E-2</v>
       </c>
       <c r="C17">
-        <v>9.1862825792578512E-2</v>
+        <v>0.11206750392758839</v>
       </c>
       <c r="D17">
-        <v>0.8594741202520686</v>
+        <v>0.82992346312156173</v>
       </c>
       <c r="E17">
-        <v>9.7535263945460873E-2</v>
+        <v>0.1521048311107141</v>
       </c>
       <c r="F17">
-        <v>6.1296442973784088E-2</v>
+        <v>2.7126480679291541E-2</v>
       </c>
       <c r="G17">
-        <v>0.16029974934026781</v>
+        <v>0.10706650261633389</v>
       </c>
       <c r="H17">
-        <v>0.61617773128391096</v>
+        <v>0.49437280276784418</v>
       </c>
       <c r="I17">
-        <v>0.3979726942628512</v>
+        <v>0.51071071711459626</v>
       </c>
       <c r="J17">
-        <v>0.48165779364381101</v>
+        <v>0.51158052449424352</v>
       </c>
       <c r="K17">
-        <v>7.457578369370628E-2</v>
+        <v>9.6195898688754569E-2</v>
       </c>
       <c r="L17">
-        <v>0.29283068251569627</v>
+        <v>0.38817547939897928</v>
       </c>
       <c r="M17">
-        <v>0.13050375861450009</v>
+        <v>0.23209186338859861</v>
       </c>
       <c r="N17">
-        <v>0.77367271592968279</v>
+        <v>0.49098242963280481</v>
       </c>
       <c r="O17">
-        <v>0.97442814617470652</v>
+        <v>0.87804611281513356</v>
       </c>
       <c r="P17">
-        <v>0.57374417286847423</v>
+        <v>0.76906905946122606</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>0.6333513111079665</v>
+        <v>0.54591804964957369</v>
       </c>
       <c r="S17">
-        <v>0.12700853806516541</v>
+        <v>0.1215373619862833</v>
       </c>
       <c r="T17">
-        <v>1.9721032516925668E-5</v>
+        <v>1.218617893869148E-5</v>
       </c>
       <c r="U17">
-        <v>1.4256162744926221E-2</v>
+        <v>1.6621755295067309E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1476,64 +1476,64 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="B18">
-        <v>0.1182010440605652</v>
+        <v>0.26825608640272097</v>
       </c>
       <c r="C18">
-        <v>0.188327097796545</v>
+        <v>0.2953455983469957</v>
       </c>
       <c r="D18">
-        <v>0.79155084569233747</v>
+        <v>0.42522595592094209</v>
       </c>
       <c r="E18">
-        <v>0.20920297393307191</v>
+        <v>0.40054488885294931</v>
       </c>
       <c r="F18">
-        <v>0.1341812300943111</v>
+        <v>9.6248717906364509E-2</v>
       </c>
       <c r="G18">
-        <v>5.4275404037637642E-2</v>
+        <v>2.755893253919901E-2</v>
       </c>
       <c r="H18">
-        <v>0.33291287133793868</v>
+        <v>0.20677844541957191</v>
       </c>
       <c r="I18">
-        <v>0.68576990004772587</v>
+        <v>0.95164358928317172</v>
       </c>
       <c r="J18">
-        <v>0.77626663123423068</v>
+        <v>0.92776510354836994</v>
       </c>
       <c r="K18">
-        <v>0.16188463700062269</v>
+        <v>0.26406798500350231</v>
       </c>
       <c r="L18">
-        <v>0.53228116574316275</v>
+        <v>0.79992319306159554</v>
       </c>
       <c r="M18">
-        <v>0.26443022659742038</v>
+        <v>0.53735462794259314</v>
       </c>
       <c r="N18">
-        <v>0.44324563834641278</v>
+        <v>0.18980446478675519</v>
       </c>
       <c r="O18">
-        <v>0.59459643665488127</v>
+        <v>0.43112187143525221</v>
       </c>
       <c r="P18">
-        <v>0.91526826907824443</v>
+        <v>0.75460478955165866</v>
       </c>
       <c r="Q18">
-        <v>0.6333513111079665</v>
+        <v>0.54591804964957369</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.26673982760365272</v>
+        <v>0.331614003540041</v>
       </c>
       <c r="T18">
-        <v>7.468160082586722E-5</v>
+        <v>1.2697598048143851E-4</v>
       </c>
       <c r="U18">
-        <v>3.9570612039527678E-2</v>
+        <v>7.0862725267362842E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1541,64 +1541,64 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="B19">
-        <v>0.63255100046337531</v>
+        <v>0.91002183462187269</v>
       </c>
       <c r="C19">
-        <v>0.753856239131663</v>
+        <v>0.89608783168178041</v>
       </c>
       <c r="D19">
-        <v>0.20588047773485391</v>
+        <v>8.8461219343701616E-2</v>
       </c>
       <c r="E19">
-        <v>0.86751848538572318</v>
+        <v>0.88267804924079318</v>
       </c>
       <c r="F19">
-        <v>0.64416854967054138</v>
+        <v>0.47320051837682259</v>
       </c>
       <c r="G19">
-        <v>3.9280218684882261E-3</v>
+        <v>2.1858684836326332E-3</v>
       </c>
       <c r="H19">
-        <v>5.201016564626789E-2</v>
+        <v>3.1948177110101811E-2</v>
       </c>
       <c r="I19">
-        <v>0.49938771251466169</v>
+        <v>0.36673726532749701</v>
       </c>
       <c r="J19">
-        <v>0.46585185726540579</v>
+        <v>0.40880580568994551</v>
       </c>
       <c r="K19">
-        <v>0.7323444859942646</v>
+        <v>0.84836218713493039</v>
       </c>
       <c r="L19">
-        <v>0.65188507646699145</v>
+        <v>0.46099224060846922</v>
       </c>
       <c r="M19">
-        <v>0.95097416649842725</v>
+        <v>0.73352968867225554</v>
       </c>
       <c r="N19">
-        <v>7.4149553520369602E-2</v>
+        <v>2.449100374181928E-2</v>
       </c>
       <c r="O19">
-        <v>0.105350247374715</v>
+        <v>7.7512167192489101E-2</v>
       </c>
       <c r="P19">
-        <v>0.33136053018914541</v>
+        <v>0.20299411685812799</v>
       </c>
       <c r="Q19">
-        <v>0.12700853806516541</v>
+        <v>0.1215373619862833</v>
       </c>
       <c r="R19">
-        <v>0.26673982760365272</v>
+        <v>0.331614003540041</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>5.7626506301534722E-3</v>
+        <v>5.0757563842625773E-3</v>
       </c>
       <c r="U19">
-        <v>0.3870326084712874</v>
+        <v>0.43539547882393248</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1606,64 +1606,64 @@
         <v>1.9E-2</v>
       </c>
       <c r="B20">
-        <v>2.8328333382408231E-2</v>
+        <v>6.0548267099335721E-3</v>
       </c>
       <c r="C20">
-        <v>2.8775683742666949E-2</v>
+        <v>1.1862168192821491E-2</v>
       </c>
       <c r="D20">
-        <v>1.096818187583341E-4</v>
+        <v>9.470592307837501E-6</v>
       </c>
       <c r="E20">
-        <v>1.1243382443629459E-2</v>
+        <v>2.6554670056892259E-3</v>
       </c>
       <c r="F20">
-        <v>3.5323409211715152E-2</v>
+        <v>4.7634102738010192E-2</v>
       </c>
       <c r="G20">
-        <v>3.1015565863976222E-8</v>
+        <v>8.7359987158848795E-9</v>
       </c>
       <c r="H20">
-        <v>5.654343907348496E-6</v>
+        <v>1.3572245697690519E-6</v>
       </c>
       <c r="I20">
-        <v>6.2897984405266315E-4</v>
+        <v>1.8532620117007179E-4</v>
       </c>
       <c r="J20">
-        <v>8.9162566897282099E-4</v>
+        <v>4.2110597652886511E-4</v>
       </c>
       <c r="K20">
-        <v>2.2744557770257079E-2</v>
+        <v>1.3178985340907921E-2</v>
       </c>
       <c r="L20">
-        <v>1.5380081512300151E-3</v>
+        <v>2.7459052806018749E-4</v>
       </c>
       <c r="M20">
-        <v>1.0128218609915991E-2</v>
+        <v>1.7767337166948831E-3</v>
       </c>
       <c r="N20">
-        <v>7.5332058947177441E-6</v>
+        <v>3.211762680567271E-7</v>
       </c>
       <c r="O20">
-        <v>8.0862016452021382E-6</v>
+        <v>2.541465780178165E-6</v>
       </c>
       <c r="P20">
-        <v>1.8895350131251009E-4</v>
+        <v>3.697488931009965E-5</v>
       </c>
       <c r="Q20">
-        <v>1.9721032516925668E-5</v>
+        <v>1.218617893869148E-5</v>
       </c>
       <c r="R20">
-        <v>7.468160082586722E-5</v>
+        <v>1.2697598048143851E-4</v>
       </c>
       <c r="S20">
-        <v>5.7626506301534722E-3</v>
+        <v>5.0757563842625773E-3</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>4.4501659479004932E-2</v>
+        <v>3.3664331488338278E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1671,61 +1671,61 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>0.73576531689198665</v>
+        <v>0.49694623990398712</v>
       </c>
       <c r="C21">
-        <v>0.65098074758759961</v>
+        <v>0.54911081550713625</v>
       </c>
       <c r="D21">
-        <v>3.3608929192267198E-2</v>
+        <v>1.1682020885670181E-2</v>
       </c>
       <c r="E21">
-        <v>0.50205325395137856</v>
+        <v>0.34225107539704658</v>
       </c>
       <c r="F21">
-        <v>0.74858828654913101</v>
+        <v>0.99385476258901506</v>
       </c>
       <c r="G21">
-        <v>1.257910455714396E-4</v>
+        <v>8.7866413290696481E-5</v>
       </c>
       <c r="H21">
-        <v>4.6882905067319172E-3</v>
+        <v>3.017897344311642E-3</v>
       </c>
       <c r="I21">
-        <v>0.11805937257472759</v>
+        <v>8.4168555206451029E-2</v>
       </c>
       <c r="J21">
-        <v>0.1177002350025671</v>
+        <v>0.10868858540134831</v>
       </c>
       <c r="K21">
-        <v>0.64405262604608482</v>
+        <v>0.58693226200321491</v>
       </c>
       <c r="L21">
-        <v>0.18704042112158789</v>
+        <v>0.11498386415177859</v>
       </c>
       <c r="M21">
-        <v>0.4487602749697015</v>
+        <v>0.25949168268281347</v>
       </c>
       <c r="N21">
-        <v>6.8850517387988742E-3</v>
+        <v>1.702399757650383E-3</v>
       </c>
       <c r="O21">
-        <v>9.6148397578198347E-3</v>
+        <v>7.7947105982049854E-3</v>
       </c>
       <c r="P21">
-        <v>6.0274504011367511E-2</v>
+        <v>3.4199897593911302E-2</v>
       </c>
       <c r="Q21">
-        <v>1.4256162744926221E-2</v>
+        <v>1.6621755295067309E-2</v>
       </c>
       <c r="R21">
-        <v>3.9570612039527678E-2</v>
+        <v>7.0862725267362842E-2</v>
       </c>
       <c r="S21">
-        <v>0.3870326084712874</v>
+        <v>0.43539547882393248</v>
       </c>
       <c r="T21">
-        <v>4.4501659479004932E-2</v>
+        <v>3.3664331488338278E-2</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1733,20 +1733,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:U21">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="5"/>
         <color theme="0"/>
-        <color theme="5"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
